--- a/Working files/Imran Aslam (Wood Business).xlsx
+++ b/Working files/Imran Aslam (Wood Business).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8529CB6A-6EEB-45CB-B8A3-42DD0DEAFB0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,11 +19,217 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+  <si>
+    <t>Abdul Hameed</t>
+  </si>
+  <si>
+    <t>Reshmatex</t>
+  </si>
+  <si>
+    <t>Sunlight / Sajid</t>
+  </si>
+  <si>
+    <t>Zubair / K</t>
+  </si>
+  <si>
+    <t>Haizan</t>
+  </si>
+  <si>
+    <t>Abbu BAHL Acc (Tank Adda)</t>
+  </si>
+  <si>
+    <t>Imran Meezan Acc (Karachi)</t>
+  </si>
+  <si>
+    <t>Imran BAHL Acc (xxx)</t>
+  </si>
+  <si>
+    <t>Imran BAFL Acc (DIK)</t>
+  </si>
+  <si>
+    <t>Ibraheem (Darya Khan)</t>
+  </si>
+  <si>
+    <t>Ghulam Qadir (Khuber)</t>
+  </si>
+  <si>
+    <t>Farman Shah (DIK)</t>
+  </si>
+  <si>
+    <t>Zahid Kashmiri (Matli)</t>
+  </si>
+  <si>
+    <t>Faisal (KP Mor)</t>
+  </si>
+  <si>
+    <t>Saleem uddin (MPK)</t>
+  </si>
+  <si>
+    <t>Liaquat (T/Jaam)</t>
+  </si>
+  <si>
+    <t>Raja Meherban (Darya Khan)</t>
+  </si>
+  <si>
+    <t>Ramiz</t>
+  </si>
+  <si>
+    <t>Rehan Aslam</t>
+  </si>
+  <si>
+    <t>Asim (Plot)</t>
+  </si>
+  <si>
+    <t>Ch. Adnan (Johar)</t>
+  </si>
+  <si>
+    <t>Massod (Chowk Munda)</t>
+  </si>
+  <si>
+    <t>Qarar c/o Asad (Karachi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asim </t>
+  </si>
+  <si>
+    <t>Nabi Nawab (Behal)</t>
+  </si>
+  <si>
+    <t>Akhtar (TMK)</t>
+  </si>
+  <si>
+    <t>Khan Meer (Khad Buzdar)</t>
+  </si>
+  <si>
+    <t>Parmanand</t>
+  </si>
+  <si>
+    <t>Mumtaz Bheet (88755-4045 = 84710)</t>
+  </si>
+  <si>
+    <t>Kamran Bypass (DIK)</t>
+  </si>
+  <si>
+    <t>Anwar (Khad Buzdar)</t>
+  </si>
+  <si>
+    <t>Zaheer (Talagang)</t>
+  </si>
+  <si>
+    <t>Amjad (T / Adam)</t>
+  </si>
+  <si>
+    <t>Masood (Chowk Munda)</t>
+  </si>
+  <si>
+    <t>Cash in Hand (Actual)</t>
+  </si>
+  <si>
+    <t>Cash in Hand Bilal uddin work due to adjust closing Rec on 7/1/25 = 1,600,000/- but write on 31/12/24 = 1,093,974/-</t>
+  </si>
+  <si>
+    <t>Ali Amaan Taal (Hattar)</t>
+  </si>
+  <si>
+    <t>Akbar (Matli)</t>
+  </si>
+  <si>
+    <t>Arif ullah Shinwari</t>
+  </si>
+  <si>
+    <t>Iqbal (Tham Shah-  Noshero)</t>
+  </si>
+  <si>
+    <t>Sikandar (T / Adam)</t>
+  </si>
+  <si>
+    <t>Abdul Shakoor (Hyderabad)</t>
+  </si>
+  <si>
+    <t>Alam khan (T / Adam)</t>
+  </si>
+  <si>
+    <t>Yousuf (TAY)</t>
+  </si>
+  <si>
+    <t>Tariq Broper (Noshehro)</t>
+  </si>
+  <si>
+    <t>Shahid (TAY)</t>
+  </si>
+  <si>
+    <t>Abdul Qadir (Kahd Buzdar)</t>
+  </si>
+  <si>
+    <t>S. #</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Mohabbat Siyal (Kanyaro)</t>
+  </si>
+  <si>
+    <t>Imran Allied Bank (DIK)</t>
+  </si>
+  <si>
+    <t>Head of Account</t>
+  </si>
+  <si>
+    <t>Payable</t>
+  </si>
+  <si>
+    <t>Receivables</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Other Payable</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,14 +252,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +357,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>173262</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D2BF07-8AF8-4366-83B4-26CCD32D1E6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="38100"/>
+          <a:ext cx="8031387" cy="5706271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>363972</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>96080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503281D1-FFE3-43F6-9D25-E6917AC5E861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12058650" y="2028825"/>
+          <a:ext cx="10841472" cy="5944430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>68699</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>153218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A13CBCE-8114-4DB7-8A27-2C8C55FB5224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13001625" y="2886075"/>
+          <a:ext cx="8384024" cy="5858693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +758,691 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A6:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="22.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>55567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-10260035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-927371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-47015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>5</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-5893786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>6</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>7</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-22403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-25343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>9</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-17240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>10</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-6607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>11</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>12</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>13</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-404250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>14</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-75000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>15</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-250000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>16</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>17</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
+        <v>460200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>18</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="12">
+        <v>6717750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>19</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-175000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>20</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-748982</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>21</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>22</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-75880</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>23</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-295182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>24</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-23818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>25</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-459257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>26</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>27</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1">
+        <v>667445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>28</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1">
+        <v>15</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>29</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>30</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1145318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>31</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>32</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1158352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>33</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="1">
+        <v>227320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>34</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>35</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-84710</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>36</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>37</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1">
+        <v>10262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>38</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>39</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="1">
+        <v>162955</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>40</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="1">
+        <v>206477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>41</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>42</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1">
+        <v>342035</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>43</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-6479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>44</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>45</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>46</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="1">
+        <v>14091</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>47</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>48</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6847</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>49</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C57" s="2"/>
+      <c r="D57" s="1">
+        <f>SUM(D8:D56)</f>
+        <v>-7755152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="13">
+        <v>-7755152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="13">
+        <f>D59-D57</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Working files/Imran Aslam (Wood Business).xlsx
+++ b/Working files/Imran Aslam (Wood Business).xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8529CB6A-6EEB-45CB-B8A3-42DD0DEAFB0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7677D1F-E2C0-428C-BD0A-4CA085834409}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="66">
   <si>
     <t>Abdul Hameed</t>
   </si>
@@ -194,6 +195,30 @@
   </si>
   <si>
     <t>Cash</t>
+  </si>
+  <si>
+    <t>Balanced Sheet (Imran Aslam)</t>
+  </si>
+  <si>
+    <t>AS on 31 Dec 24</t>
+  </si>
+  <si>
+    <t>Currents Asset</t>
+  </si>
+  <si>
+    <t>Fixed Assets</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Asset = CAP + LIA</t>
+  </si>
+  <si>
+    <t>ASEETS</t>
   </si>
 </sst>
 </file>
@@ -205,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +255,23 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -298,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -338,7 +380,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -363,16 +420,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>173262</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>48421</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>563787</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>686596</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -395,7 +452,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143625" y="38100"/>
+          <a:off x="12896850" y="914400"/>
           <a:ext cx="8031387" cy="5706271"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -407,16 +464,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>363972</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>421122</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>96080</xdr:rowOff>
+      <xdr:rowOff>172280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -439,7 +496,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12058650" y="2028825"/>
+          <a:off x="15430500" y="2181225"/>
           <a:ext cx="10841472" cy="5944430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -451,16 +508,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>68699</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>153218</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>287774</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>229418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -483,7 +540,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13001625" y="2886075"/>
+          <a:off x="16535400" y="2562225"/>
           <a:ext cx="8384024" cy="5858693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -759,25 +816,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:E61"/>
+  <dimension ref="A6:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="22.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="14" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -791,7 +851,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -804,8 +864,12 @@
       <c r="D8" s="11">
         <v>55567</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>2</v>
       </c>
@@ -818,8 +882,12 @@
       <c r="D9" s="1">
         <v>-10260035</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>3</v>
       </c>
@@ -833,7 +901,7 @@
         <v>-927371</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>4</v>
       </c>
@@ -846,8 +914,12 @@
       <c r="D11" s="1">
         <v>-47015</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>5</v>
       </c>
@@ -860,20 +932,36 @@
       <c r="D12" s="1">
         <v>-5893786</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="19">
+        <f>SUMIF(B:B,"Cash",D:D)</f>
+        <v>-923982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>6</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="19">
+        <f>SUMIF(B:B,"Bank",D:D)</f>
+        <v>-71593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>7</v>
       </c>
@@ -886,8 +974,15 @@
       <c r="D14" s="1">
         <v>-22403</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="19">
+        <f>SUMIF(B:B,"Receivables",D:D)</f>
+        <v>-18812783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>8</v>
       </c>
@@ -900,8 +995,9 @@
       <c r="D15" s="1">
         <v>-25343</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>9</v>
       </c>
@@ -914,8 +1010,12 @@
       <c r="D16" s="1">
         <v>-17240</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>10</v>
       </c>
@@ -928,8 +1028,9 @@
       <c r="D17" s="1">
         <v>-6607</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>11</v>
       </c>
@@ -942,8 +1043,15 @@
       <c r="D18" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="22">
+        <f>H16+H14+H13+H12</f>
+        <v>-19808358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>12</v>
       </c>
@@ -957,7 +1065,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>13</v>
       </c>
@@ -970,8 +1078,11 @@
       <c r="D20" s="1">
         <v>-404250</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>14</v>
       </c>
@@ -985,7 +1096,7 @@
         <v>-75000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>15</v>
       </c>
@@ -998,8 +1109,15 @@
       <c r="D22" s="1">
         <v>-250000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="19">
+        <f>SUMIF(B:B,"Other payable",D:D)</f>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>16</v>
       </c>
@@ -1012,8 +1130,16 @@
       <c r="D23" s="1">
         <v>150000</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="19">
+        <f>SUMIF(B:B,"Payable",D:D)</f>
+        <v>11403206</v>
+      </c>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>17</v>
       </c>
@@ -1027,7 +1153,7 @@
         <v>460200</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>18</v>
       </c>
@@ -1041,7 +1167,7 @@
         <v>6717750</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>19</v>
       </c>
@@ -1055,7 +1181,7 @@
         <v>-175000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>20</v>
       </c>
@@ -1070,11 +1196,13 @@
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>21</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1082,23 +1210,30 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>22</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="1">
         <v>-75880</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>23</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1106,11 +1241,13 @@
         <v>-295182</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>24</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
@@ -1118,11 +1255,13 @@
         <v>-23818</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>25</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
@@ -1134,7 +1273,9 @@
       <c r="A33" s="15">
         <v>26</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1287,9 @@
       <c r="A34" s="15">
         <v>27</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1301,9 @@
       <c r="A35" s="15">
         <v>28</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1316,9 @@
       <c r="A36" s="15">
         <v>29</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1330,9 @@
       <c r="A37" s="15">
         <v>30</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>46</v>
       </c>
@@ -1195,7 +1344,9 @@
       <c r="A38" s="15">
         <v>31</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>24</v>
       </c>
@@ -1207,7 +1358,9 @@
       <c r="A39" s="15">
         <v>32</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1372,9 @@
       <c r="A40" s="15">
         <v>33</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
@@ -1231,7 +1386,9 @@
       <c r="A41" s="15">
         <v>34</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>27</v>
       </c>
@@ -1243,7 +1400,9 @@
       <c r="A42" s="15">
         <v>35</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>28</v>
       </c>
@@ -1255,7 +1414,9 @@
       <c r="A43" s="15">
         <v>36</v>
       </c>
-      <c r="B43" s="15"/>
+      <c r="B43" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
@@ -1267,7 +1428,9 @@
       <c r="A44" s="15">
         <v>37</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C44" s="2" t="s">
         <v>29</v>
       </c>
@@ -1279,7 +1442,9 @@
       <c r="A45" s="15">
         <v>38</v>
       </c>
-      <c r="B45" s="17"/>
+      <c r="B45" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C45" s="8" t="s">
         <v>30</v>
       </c>
@@ -1291,7 +1456,9 @@
       <c r="A46" s="15">
         <v>39</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>31</v>
       </c>
@@ -1303,7 +1470,9 @@
       <c r="A47" s="15">
         <v>40</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>36</v>
       </c>
@@ -1315,7 +1484,9 @@
       <c r="A48" s="15">
         <v>41</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C48" s="2" t="s">
         <v>37</v>
       </c>
@@ -1327,7 +1498,9 @@
       <c r="A49" s="15">
         <v>42</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C49" s="3" t="s">
         <v>38</v>
       </c>
@@ -1339,7 +1512,9 @@
       <c r="A50" s="15">
         <v>43</v>
       </c>
-      <c r="B50" s="15"/>
+      <c r="B50" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="C50" s="3" t="s">
         <v>39</v>
       </c>
@@ -1351,7 +1526,9 @@
       <c r="A51" s="15">
         <v>44</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C51" s="3" t="s">
         <v>44</v>
       </c>
@@ -1363,7 +1540,9 @@
       <c r="A52" s="15">
         <v>45</v>
       </c>
-      <c r="B52" s="15"/>
+      <c r="B52" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C52" s="2" t="s">
         <v>40</v>
       </c>
@@ -1375,7 +1554,9 @@
       <c r="A53" s="15">
         <v>46</v>
       </c>
-      <c r="B53" s="15"/>
+      <c r="B53" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C53" s="2" t="s">
         <v>41</v>
       </c>
@@ -1387,7 +1568,9 @@
       <c r="A54" s="15">
         <v>47</v>
       </c>
-      <c r="B54" s="15"/>
+      <c r="B54" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C54" s="2" t="s">
         <v>42</v>
       </c>
@@ -1399,7 +1582,9 @@
       <c r="A55" s="15">
         <v>48</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C55" s="3" t="s">
         <v>43</v>
       </c>
@@ -1411,7 +1596,9 @@
       <c r="A56" s="15">
         <v>49</v>
       </c>
-      <c r="B56" s="15"/>
+      <c r="B56" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>45</v>
       </c>
@@ -1441,8 +1628,769 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925A1C9D-476C-4330-916C-354D1F4CEABF}">
+  <dimension ref="A5:E60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-10260035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-927371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-47015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-5893786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-22403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-25343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-17240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-6607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>13</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-404250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>14</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-75000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>15</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-250000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-175000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-748982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-75880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-295182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-23818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-459257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>35</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-84710</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>43</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-6479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>1</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
+        <v>55567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>11</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>12</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>16</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>17</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1">
+        <v>460200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>18</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="12">
+        <v>6717750</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>26</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>27</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1">
+        <v>667445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>28</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1">
+        <v>15</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>29</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>30</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1145318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>31</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>32</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1158352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>33</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1">
+        <v>227320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>34</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>36</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>37</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="1">
+        <v>10262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>38</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="12">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>39</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="1">
+        <v>162955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>40</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="1">
+        <v>206477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>41</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>42</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="1">
+        <v>342035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>44</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="1">
+        <v>43300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>45</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>46</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="1">
+        <v>14091</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>47</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>48</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="1">
+        <v>6847</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>49</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C60" s="2"/>
+      <c r="D60" s="1">
+        <f>SUM(D32:D59)</f>
+        <v>12053206</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Working files/Imran Aslam (Wood Business).xlsx
+++ b/Working files/Imran Aslam (Wood Business).xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7677D1F-E2C0-428C-BD0A-4CA085834409}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE630D7-BE5D-459A-8460-F0F314A7D055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Receivables" sheetId="2" r:id="rId2"/>
+    <sheet name="Payables" sheetId="3" r:id="rId3"/>
+    <sheet name="Cash Book" sheetId="4" r:id="rId4"/>
+    <sheet name="Balance sheet" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="69">
   <si>
     <t>Abdul Hameed</t>
   </si>
@@ -206,19 +209,28 @@
     <t>Currents Asset</t>
   </si>
   <si>
-    <t>Fixed Assets</t>
-  </si>
-  <si>
     <t>Total Assets</t>
   </si>
   <si>
     <t>Liabilities</t>
   </si>
   <si>
-    <t>Asset = CAP + LIA</t>
-  </si>
-  <si>
     <t>ASEETS</t>
+  </si>
+  <si>
+    <t>Total Liabilites</t>
+  </si>
+  <si>
+    <t>Captal (incl last Profit)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>PAYABLES</t>
+  </si>
+  <si>
+    <t>Cash Book</t>
   </si>
 </sst>
 </file>
@@ -230,7 +242,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +289,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -335,12 +363,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -380,22 +508,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD57"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,15 +983,13 @@
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="14" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -851,7 +1003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -864,12 +1016,8 @@
       <c r="D8" s="11">
         <v>55567</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>2</v>
       </c>
@@ -882,12 +1030,8 @@
       <c r="D9" s="1">
         <v>-10260035</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>3</v>
       </c>
@@ -901,7 +1045,7 @@
         <v>-927371</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>4</v>
       </c>
@@ -914,12 +1058,8 @@
       <c r="D11" s="1">
         <v>-47015</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>5</v>
       </c>
@@ -932,15 +1072,8 @@
       <c r="D12" s="1">
         <v>-5893786</v>
       </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="19">
-        <f>SUMIF(B:B,"Cash",D:D)</f>
-        <v>-923982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>6</v>
       </c>
@@ -953,15 +1086,8 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="19">
-        <f>SUMIF(B:B,"Bank",D:D)</f>
-        <v>-71593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>7</v>
       </c>
@@ -974,15 +1100,8 @@
       <c r="D14" s="1">
         <v>-22403</v>
       </c>
-      <c r="G14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="19">
-        <f>SUMIF(B:B,"Receivables",D:D)</f>
-        <v>-18812783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>8</v>
       </c>
@@ -995,9 +1114,8 @@
       <c r="D15" s="1">
         <v>-25343</v>
       </c>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>9</v>
       </c>
@@ -1010,10 +1128,6 @@
       <c r="D16" s="1">
         <v>-17240</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
@@ -1028,7 +1142,6 @@
       <c r="D17" s="1">
         <v>-6607</v>
       </c>
-      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
@@ -1043,13 +1156,6 @@
       <c r="D18" s="1">
         <v>300000</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="22">
-        <f>H16+H14+H13+H12</f>
-        <v>-19808358</v>
-      </c>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -1078,9 +1184,6 @@
       <c r="D20" s="1">
         <v>-404250</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -1109,13 +1212,6 @@
       <c r="D22" s="1">
         <v>-250000</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="19">
-        <f>SUMIF(B:B,"Other payable",D:D)</f>
-        <v>650000</v>
-      </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
@@ -1130,14 +1226,7 @@
       <c r="D23" s="1">
         <v>150000</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="19">
-        <f>SUMIF(B:B,"Payable",D:D)</f>
-        <v>11403206</v>
-      </c>
-      <c r="J23" s="23"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
@@ -1222,9 +1311,6 @@
       </c>
       <c r="D29" s="1">
         <v>-75880</v>
-      </c>
-      <c r="H29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
@@ -1628,10 +1714,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1640,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925A1C9D-476C-4330-916C-354D1F4CEABF}">
-  <dimension ref="A5:E60"/>
+  <dimension ref="A5:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,12 +1737,12 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="10"/>
@@ -1681,7 +1763,7 @@
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>54</v>
@@ -1690,12 +1772,12 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>-10260035</v>
+        <v>10260035</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>54</v>
@@ -1704,12 +1786,12 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>-927371</v>
+        <v>927371</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>54</v>
@@ -1718,12 +1800,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>-47015</v>
+        <v>47015</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>54</v>
@@ -1732,659 +1814,156 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>-5893786</v>
+        <v>5893786</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>404250</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1">
-        <v>-22403</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>-25343</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>-17240</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>-6607</v>
+        <v>75880</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
-        <v>-404250</v>
+        <v>295182</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>-75000</v>
+        <v>23818</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1">
-        <v>-250000</v>
+        <v>459257</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1">
-        <v>-175000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>84710</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>35</v>
+        <v>54</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="1">
-        <v>-748982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>21</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>22</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-75880</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-295182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>24</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1">
-        <v>-23818</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>25</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-459257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>35</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1">
-        <v>-84710</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>43</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1">
-        <v>-6479</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>1</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="11">
-        <v>55567</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <v>11</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="1">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>12</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="1">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <v>16</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="1">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <v>17</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="1">
-        <v>460200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>18</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="12">
-        <v>6717750</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <v>26</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
-        <v>27</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="1">
-        <v>667445</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
-        <v>28</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="1">
-        <v>15</v>
-      </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>29</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3657</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>30</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1145318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <v>31</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="1">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <v>32</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1158352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>33</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="1">
-        <v>227320</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <v>34</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="1">
-        <v>9218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
-        <v>36</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="1">
-        <v>10146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
-        <v>37</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="1">
-        <v>10262</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
-        <v>38</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="12">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
-        <v>39</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="1">
-        <v>162955</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
-        <v>40</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="1">
-        <v>206477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
-        <v>41</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="1">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
-        <v>42</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="1">
-        <v>342035</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
-        <v>44</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="1">
-        <v>43300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
-        <v>45</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
-        <v>46</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="1">
-        <v>14091</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
-        <v>47</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="1">
-        <v>5880</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
-        <v>48</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="1">
-        <v>6847</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
-        <v>49</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="1">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C60" s="2"/>
-      <c r="D60" s="1">
-        <f>SUM(D32:D59)</f>
-        <v>12053206</v>
+        <v>6479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="C22" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="25">
+        <f>SUM(D8:D21)</f>
+        <v>18812783</v>
       </c>
     </row>
   </sheetData>
@@ -2392,5 +1971,771 @@
     <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0691EB8-901E-4F83-B126-47D4117ACEC9}">
+  <dimension ref="A2:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>55567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>460200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="12">
+        <v>6717750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>667445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>9</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1145318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>12</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>13</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1158352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>14</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>227320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>15</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>16</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>18</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>19</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1">
+        <v>162955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1">
+        <v>206477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>21</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1">
+        <v>342035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>24</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>25</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="1">
+        <v>14091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>26</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>27</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>28</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="25">
+        <f>SUM(D5:D32)</f>
+        <v>12053206</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080A785E-E279-44D2-82E4-EFA7AB92CAED}">
+  <dimension ref="A3:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>22403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>25343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>17240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>7</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>748982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="25">
+        <f>SUM(D6:D12)</f>
+        <v>995575</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17468C-D822-4C72-9A9D-1B4C2364AEA0}">
+  <dimension ref="D7:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="4:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="D8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="4:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="D9" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="23">
+        <f>'Cash Book'!D11+'Cash Book'!D12</f>
+        <v>923982</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="23">
+        <f>'Cash Book'!D6+'Cash Book'!D7+'Cash Book'!D8+'Cash Book'!D9+'Cash Book'!D10</f>
+        <v>71593</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="23">
+        <f>Receivables!D22</f>
+        <v>18812783</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="19"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="28">
+        <f>E16+E14+E13+E12</f>
+        <v>19808358</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D22" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="23">
+        <f>Payables!D6+Payables!D7</f>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="23">
+        <f>Payables!D33-Payables!D6-Payables!D7</f>
+        <v>11403206</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="28">
+        <f>E23+E22</f>
+        <v>12053206</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="4:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="30">
+        <f>E18-E25</f>
+        <v>7755152</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>